--- a/biology/Zoologie/Carpodacus_subhimachalus/Carpodacus_subhimachalus.xlsx
+++ b/biology/Zoologie/Carpodacus_subhimachalus/Carpodacus_subhimachalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpodacus subhimachalus (anciennement Pinicola subhimachala), anciennement Durbec à tête rouge ou Durbec des genévriers, est une espèce de passereaux de la famille des Fringillidae. C'est une espèce monotypique.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étude phylogénique de Zuccon et al. (2012) montre que cette espèce est proche des espèces du genre Carpodacus, et pas du tout proche de l'autre espèce du genre Pinicola, le Durbec des sapins.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers les monts Hengduan et l'est de l’Himalaya.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est associé aux fourrés de rhododendrons, de genévriers et de saules au voisinage de la limite des arbres ainsi qu’aux forêts claires à sous-bois buissonneux avec des altitudes entre 3500 et 4000 m en été et de 2590 à 3050 m en hiver.
 </t>
@@ -604,7 +622,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle consiste en baies de viornes (Viburnum sp.), d’épines-vinettes (Berberis sp.) et en petites pommes sauvages. La consommation de pousses et de bourgeons d’une clématite (Clematis sp.) a également été rapportée (in Ottaviani 2008).
 </t>
@@ -635,7 +655,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Confiant et tranquille, il passe de longs moments perché au même endroit. Il évolue en couple ou en petits groupes, se nourrissant dans les frondaisons basses ou sur le sol. Assez silencieux et aux évolutions plutôt lentes, il passe souvent inaperçu.  
 </t>
@@ -666,7 +688,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle n’est pas documentée mais l’émission de chants nuptiaux en juin suggère une nidification tardive en juillet-août, certains mâles se reproduiraient en plumage subadulte.
 </t>
